--- a/Learn_Dataframe.xlsx
+++ b/Learn_Dataframe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>Offerte libere</t>
+  </si>
+  <si>
+    <t>Semi, Ortaggi</t>
   </si>
 </sst>
 </file>
@@ -524,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1593,6 +1596,32 @@
         <v>32</v>
       </c>
     </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>51</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" t="s">
+        <v>51</v>
+      </c>
+      <c r="H42">
+        <v>36.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
